--- a/pitch_arsenal_analysis.xlsx
+++ b/pitch_arsenal_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/903e2b603392319c/Documents/Application Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coleg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{767662EF-39AB-4B95-9E8E-3D902656C8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09F7D71F-238A-42D3-889A-5E13B30CD32F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379CDC5E-54EB-4691-83FA-F06BBEC34EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A084B933-017B-46D3-9FFE-C8884BC2BFDA}"/>
+    <workbookView xWindow="1788" yWindow="2952" windowWidth="17280" windowHeight="8880" xr2:uid="{A084B933-017B-46D3-9FFE-C8884BC2BFDA}"/>
   </bookViews>
   <sheets>
     <sheet name="pitch-arsenal-stats (2)" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="364">
   <si>
     <t>last_name, first_name</t>
   </si>
@@ -1109,9 +1109,6 @@
     <t>Milner, Hoby</t>
   </si>
   <si>
-    <t>SUM</t>
-  </si>
-  <si>
     <t>RANKINGS:</t>
   </si>
   <si>
@@ -1122,6 +1119,12 @@
   </si>
   <si>
     <t>RANKINGS</t>
+  </si>
+  <si>
+    <t>ranking_sum</t>
+  </si>
+  <si>
+    <t>min(ranking_sum)</t>
   </si>
 </sst>
 </file>
@@ -1674,10 +1677,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1997,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C56E592-FD9A-4EA7-A34C-3E19AF0E81E4}">
   <dimension ref="A1:AQ511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="AT5" sqref="AT5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2035,9 +2034,9 @@
     <col min="34" max="34" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2104,7 +2103,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="V1" t="s">
         <v>5</v>
@@ -2143,19 +2142,19 @@
         <v>19</v>
       </c>
       <c r="AL1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AM1" t="s">
         <v>0</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>41</v>
+        <v>363</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
@@ -2638,7 +2637,7 @@
         <v>28</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.3">
